--- a/input_data/Elisabetta load P.U.xlsx
+++ b/input_data/Elisabetta load P.U.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateus\Desktop\Poli\IC Eólica\LGrid-py\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateus\Desktop\Poli\IC Eólica\LGridPy\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5582F1-1280-4584-90A9-193D0ECE77F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B92D38C-8F42-4844-8B27-A4C1FDB37739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wpd_datasets (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -3430,7 +3439,737 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Load Profile</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="49000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>67.097115594197277</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.498986865580079</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.519945543304175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.020137560243143</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.664061175558864</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.657939986922095</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.608074398779422</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.558208810636671</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.508343222493991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.458477634351325</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.233634448184816</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66.714109074078578</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65.557312731588027</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>64.551191542951258</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71.039944136333162</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>69.450564287617183</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>68.461940858782782</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67.482066309849614</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>72.731394250563056</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>73.781259838705807</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>66.366584122447975</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>70.281707878230122</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>69.231842290087457</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>68.006999103920947</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64.519945543304175</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>63.129498559008006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>61.795294374076633</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>60.657939986922095</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>59.608074398779422</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58.251998014095058</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>65.490654599007485</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>74.752750044400273</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>72.970530301195566</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>71.540574486234604</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>70.231714278794783</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>68.099348391766867</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>66.852146956964035</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>69.217260823585491</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>65.679797050204655</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>74.931112625719166</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>73.475049042164116</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>72.425183454021436</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>71.37531786587877</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>70.325452277736105</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>67.482066309849614</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>69.173516424079509</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>64.244980746409638</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>65.659382997101872</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>64.967691249762368</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>63.982514349373936</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>64.937600405253789</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>63.479453755055587</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>62.079632970865333</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>65.090705803524557</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>62.93264876123127</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>65.646745726133531</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>65.922266007466206</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>68.415280165976483</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>67.30708871182587</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>73.956237436729566</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>72.665777651304168</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>71.331573466372788</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69.975497081688516</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>65.051127537304865</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64.011677282377946</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>62.620188764760215</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>61.547409443542975</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>60.599614120914147</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>59.549748532771474</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>58.499882944628801</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>57.45001735648605</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>56.400151768343378</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>55.350286180200712</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>54.300420592058046</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>53.396369668935108</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>61.259425480128805</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>60.103844259846824</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>59.214374803225859</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>63.19876052489245</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>61.742801094669503</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>60.205914525360669</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>62.796555073879453</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>64.157491947397773</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>61.241198647001376</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>59.673690998038303</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>58.71131420890751</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>57.736786197691728</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>56.58971083286918</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>55.496100845220532</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>54.205641059795141</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>63.268022490776886</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>61.310460612885812</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>59.578911465775398</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>68.094487902932826</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>66.913389116272299</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>65.834360595125617</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>64.425790931034214</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>59.185211870221927</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>62.841660410258918</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>61.112881741783923</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4022-428B-9D50-7F587520714A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="217858127"/>
+        <c:axId val="217858543"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="217858127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Hours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="217858543"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="217858543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Power</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> [ MW]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="217858127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3973,6 +4712,527 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4000,6 +5260,47 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>108065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>232757</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>108066</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C73C696A-330D-949E-1645-77AD38C45541}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4315,7 +5616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A548" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
@@ -12390,4 +13691,629 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFB51B4-4EFC-4600-A5E7-13A2F173505D}">
+  <dimension ref="A1:A101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X24" sqref="X24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <f>85*'wpd_datasets (1)'!B560</f>
+        <v>54.358746458065902</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <f>85*'wpd_datasets (1)'!B561</f>
+        <v>67.097115594197277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f>85*'wpd_datasets (1)'!B562</f>
+        <v>65.498986865580079</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f>85*'wpd_datasets (1)'!B563</f>
+        <v>64.519945543304175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f>85*'wpd_datasets (1)'!B564</f>
+        <v>63.020137560243143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f>85*'wpd_datasets (1)'!B565</f>
+        <v>61.664061175558864</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f>85*'wpd_datasets (1)'!B566</f>
+        <v>60.657939986922095</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f>85*'wpd_datasets (1)'!B567</f>
+        <v>59.608074398779422</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f>85*'wpd_datasets (1)'!B568</f>
+        <v>58.558208810636671</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f>85*'wpd_datasets (1)'!B569</f>
+        <v>57.508343222493991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f>85*'wpd_datasets (1)'!B570</f>
+        <v>56.458477634351325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f>85*'wpd_datasets (1)'!B571</f>
+        <v>55.233634448184816</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f>85*'wpd_datasets (1)'!B572</f>
+        <v>66.714109074078578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f>85*'wpd_datasets (1)'!B573</f>
+        <v>65.557312731588027</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f>85*'wpd_datasets (1)'!B574</f>
+        <v>64.551191542951258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f>85*'wpd_datasets (1)'!B575</f>
+        <v>71.039944136333162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f>85*'wpd_datasets (1)'!B576</f>
+        <v>69.450564287617183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f>85*'wpd_datasets (1)'!B577</f>
+        <v>68.461940858782782</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f>85*'wpd_datasets (1)'!B578</f>
+        <v>67.482066309849614</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f>85*'wpd_datasets (1)'!B579</f>
+        <v>72.731394250563056</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f>85*'wpd_datasets (1)'!B580</f>
+        <v>73.781259838705807</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f>85*'wpd_datasets (1)'!B581</f>
+        <v>66.366584122447975</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f>85*'wpd_datasets (1)'!B582</f>
+        <v>70.281707878230122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f>85*'wpd_datasets (1)'!B583</f>
+        <v>69.231842290087457</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f>85*'wpd_datasets (1)'!B584</f>
+        <v>68.006999103920947</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f>85*'wpd_datasets (1)'!B585</f>
+        <v>64.519945543304175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f>85*'wpd_datasets (1)'!B586</f>
+        <v>63.129498559008006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f>85*'wpd_datasets (1)'!B587</f>
+        <v>61.795294374076633</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f>85*'wpd_datasets (1)'!B588</f>
+        <v>60.657939986922095</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f>85*'wpd_datasets (1)'!B589</f>
+        <v>59.608074398779422</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f>85*'wpd_datasets (1)'!B590</f>
+        <v>58.251998014095058</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f>85*'wpd_datasets (1)'!B591</f>
+        <v>65.490654599007485</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f>85*'wpd_datasets (1)'!B592</f>
+        <v>74.752750044400273</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f>85*'wpd_datasets (1)'!B593</f>
+        <v>72.970530301195566</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f>85*'wpd_datasets (1)'!B594</f>
+        <v>71.540574486234604</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f>85*'wpd_datasets (1)'!B595</f>
+        <v>70.231714278794783</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f>85*'wpd_datasets (1)'!B596</f>
+        <v>68.099348391766867</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f>85*'wpd_datasets (1)'!B597</f>
+        <v>66.852146956964035</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f>85*'wpd_datasets (1)'!B598</f>
+        <v>69.217260823585491</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f>85*'wpd_datasets (1)'!B599</f>
+        <v>65.679797050204655</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f>85*'wpd_datasets (1)'!B600</f>
+        <v>74.931112625719166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f>85*'wpd_datasets (1)'!B601</f>
+        <v>73.475049042164116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f>85*'wpd_datasets (1)'!B602</f>
+        <v>72.425183454021436</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f>85*'wpd_datasets (1)'!B603</f>
+        <v>71.37531786587877</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f>85*'wpd_datasets (1)'!B604</f>
+        <v>70.325452277736105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f>85*'wpd_datasets (1)'!B605</f>
+        <v>67.482066309849614</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f>85*'wpd_datasets (1)'!B606</f>
+        <v>69.173516424079509</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f>85*'wpd_datasets (1)'!B607</f>
+        <v>64.244980746409638</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f>85*'wpd_datasets (1)'!B608</f>
+        <v>65.659382997101872</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f>85*'wpd_datasets (1)'!B609</f>
+        <v>64.967691249762368</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f>85*'wpd_datasets (1)'!B610</f>
+        <v>63.982514349373936</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f>85*'wpd_datasets (1)'!B611</f>
+        <v>64.937600405253789</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f>85*'wpd_datasets (1)'!B612</f>
+        <v>63.479453755055587</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f>85*'wpd_datasets (1)'!B613</f>
+        <v>62.079632970865333</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f>85*'wpd_datasets (1)'!B614</f>
+        <v>65.090705803524557</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f>85*'wpd_datasets (1)'!B615</f>
+        <v>62.93264876123127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f>85*'wpd_datasets (1)'!B616</f>
+        <v>65.646745726133531</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f>85*'wpd_datasets (1)'!B617</f>
+        <v>65.922266007466206</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f>85*'wpd_datasets (1)'!B618</f>
+        <v>68.415280165976483</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f>85*'wpd_datasets (1)'!B619</f>
+        <v>67.30708871182587</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <f>85*'wpd_datasets (1)'!B620</f>
+        <v>73.956237436729566</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <f>85*'wpd_datasets (1)'!B621</f>
+        <v>72.665777651304168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <f>85*'wpd_datasets (1)'!B622</f>
+        <v>71.331573466372788</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <f>85*'wpd_datasets (1)'!B623</f>
+        <v>69.975497081688516</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <f>85*'wpd_datasets (1)'!B624</f>
+        <v>65.051127537304865</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <f>85*'wpd_datasets (1)'!B625</f>
+        <v>64.011677282377946</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <f>85*'wpd_datasets (1)'!B626</f>
+        <v>62.620188764760215</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <f>85*'wpd_datasets (1)'!B627</f>
+        <v>61.547409443542975</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <f>85*'wpd_datasets (1)'!B628</f>
+        <v>60.599614120914147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <f>85*'wpd_datasets (1)'!B629</f>
+        <v>59.549748532771474</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <f>85*'wpd_datasets (1)'!B630</f>
+        <v>58.499882944628801</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <f>85*'wpd_datasets (1)'!B631</f>
+        <v>57.45001735648605</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <f>85*'wpd_datasets (1)'!B632</f>
+        <v>56.400151768343378</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <f>85*'wpd_datasets (1)'!B633</f>
+        <v>55.350286180200712</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <f>85*'wpd_datasets (1)'!B634</f>
+        <v>54.300420592058046</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <f>85*'wpd_datasets (1)'!B635</f>
+        <v>53.396369668935108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <f>85*'wpd_datasets (1)'!B636</f>
+        <v>61.259425480128805</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <f>85*'wpd_datasets (1)'!B637</f>
+        <v>60.103844259846824</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <f>85*'wpd_datasets (1)'!B638</f>
+        <v>59.214374803225859</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <f>85*'wpd_datasets (1)'!B639</f>
+        <v>63.19876052489245</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <f>85*'wpd_datasets (1)'!B640</f>
+        <v>61.742801094669503</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <f>85*'wpd_datasets (1)'!B641</f>
+        <v>60.205914525360669</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <f>85*'wpd_datasets (1)'!B642</f>
+        <v>62.796555073879453</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <f>85*'wpd_datasets (1)'!B643</f>
+        <v>64.157491947397773</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <f>85*'wpd_datasets (1)'!B644</f>
+        <v>61.241198647001376</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <f>85*'wpd_datasets (1)'!B645</f>
+        <v>59.673690998038303</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <f>85*'wpd_datasets (1)'!B646</f>
+        <v>58.71131420890751</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <f>85*'wpd_datasets (1)'!B647</f>
+        <v>57.736786197691728</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <f>85*'wpd_datasets (1)'!B648</f>
+        <v>56.58971083286918</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <f>85*'wpd_datasets (1)'!B649</f>
+        <v>55.496100845220532</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <f>85*'wpd_datasets (1)'!B650</f>
+        <v>54.205641059795141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <f>85*'wpd_datasets (1)'!B651</f>
+        <v>63.268022490776886</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <f>85*'wpd_datasets (1)'!B652</f>
+        <v>61.310460612885812</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <f>85*'wpd_datasets (1)'!B653</f>
+        <v>59.578911465775398</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <f>85*'wpd_datasets (1)'!B654</f>
+        <v>68.094487902932826</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <f>85*'wpd_datasets (1)'!B655</f>
+        <v>66.913389116272299</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <f>85*'wpd_datasets (1)'!B656</f>
+        <v>65.834360595125617</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <f>85*'wpd_datasets (1)'!B657</f>
+        <v>64.425790931034214</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <f>85*'wpd_datasets (1)'!B658</f>
+        <v>59.185211870221927</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <f>85*'wpd_datasets (1)'!B659</f>
+        <v>62.841660410258918</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <f>85*'wpd_datasets (1)'!B660</f>
+        <v>61.112881741783923</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>